--- a/TP_Planificación_Seguimiento(1).xlsx
+++ b/TP_Planificación_Seguimiento(1).xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramir\Documents\Repositorios\Arquitectura-de-las-Computadoras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E01353F8-BBCB-44CE-AC7F-8A42677F8FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bitácora" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Planificación  de Tareas_ORIGIN" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Replanificación de tareas _fech" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Bitácora" sheetId="1" r:id="rId1"/>
+    <sheet name="Planificación  de Tareas_ORIGIN" sheetId="2" r:id="rId2"/>
+    <sheet name="Replanificación de tareas _fech" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,13 +26,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -121,13 +126,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -222,144 +227,215 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">Bitácora de avances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hs Aplicadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comentario</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+  <si>
+    <t>Bitácora de avances</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Integrantes</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Hs Aplicadas</t>
+  </si>
+  <si>
+    <t>Comentario</t>
   </si>
   <si>
     <t xml:space="preserve">Camila Kerps, Matias Jacob, Silvina Meinero, </t>
   </si>
   <si>
-    <t xml:space="preserve">reunión inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camila Kerps, Matías Jacob</t>
+    <t>reunión inicial</t>
+  </si>
+  <si>
+    <t>Camila Kerps, Matías Jacob</t>
   </si>
   <si>
     <t xml:space="preserve">Identificación  de tareas </t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partición de las tareas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definición de la responsabilidad de cada integrante del grupo en cada tares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimación de tiempos de cada tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silvina Meinero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimación del tiempo total del proyecto. Camino crítico. Definición de hitos. Cronograma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Partición de las tareas</t>
+  </si>
+  <si>
+    <t>definición de la responsabilidad de cada integrante del grupo en cada tares</t>
+  </si>
+  <si>
+    <t>Estimación de tiempos de cada tarea</t>
+  </si>
+  <si>
+    <t>Silvina Meinero</t>
+  </si>
+  <si>
+    <t>Estimación del tiempo total del proyecto. Camino crítico. Definición de hitos. Cronograma</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t xml:space="preserve">.. </t>
   </si>
   <si>
-    <t xml:space="preserve">. . . . .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. . . . . .</t>
+    <t>. . . . .</t>
+  </si>
+  <si>
+    <t>. . . . . .</t>
   </si>
   <si>
     <t xml:space="preserve">. . . . </t>
   </si>
   <si>
-    <t xml:space="preserve">rehacer cronograma por demora en la tarea Ti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no retrasa el proyecto. Justificar demora de tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id Tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de tarea</t>
+    <t>rehacer cronograma por demora en la tarea Ti</t>
+  </si>
+  <si>
+    <t>no retrasa el proyecto. Justificar demora de tarea</t>
+  </si>
+  <si>
+    <t>id Tarea</t>
+  </si>
+  <si>
+    <t>Nombre de tarea</t>
   </si>
   <si>
     <t xml:space="preserve">cantidad de personas </t>
   </si>
   <si>
-    <t xml:space="preserve">tiempo máximo en días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha de inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depende de las tareas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrante1 /  …………….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrante2 /  …………….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrante 3 /  …………….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1</t>
+    <t>tiempo máximo en días</t>
+  </si>
+  <si>
+    <t>fecha de inicio</t>
+  </si>
+  <si>
+    <t>depende de las tareas</t>
+  </si>
+  <si>
+    <t>Integrante1 /  …………….</t>
+  </si>
+  <si>
+    <t>Integrante2 /  …………….</t>
+  </si>
+  <si>
+    <t>Integrante 3 /  …………….</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
   <si>
     <t xml:space="preserve">porEjemplo ...Crear documento </t>
   </si>
   <si>
-    <t xml:space="preserve">T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PorEjemplo Crear proyecto en archivo logisim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. .  .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. . .</t>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>PorEjemplo Crear proyecto en archivo logisim</t>
+  </si>
+  <si>
+    <t>. .  .</t>
+  </si>
+  <si>
+    <t>. . .</t>
   </si>
   <si>
     <t xml:space="preserve">. . . </t>
   </si>
   <si>
-    <t xml:space="preserve">. . . .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sí necesitan replanificar deben dejar en detalle los cambios en relación a la versión inmediata anterior.</t>
+    <t>. . . .</t>
+  </si>
+  <si>
+    <t>Sí necesitan replanificar deben dejar en detalle los cambios en relación a la versión inmediata anterior.</t>
+  </si>
+  <si>
+    <t>Leer consignas del TP</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Integrante1 / Sebastián Navarro</t>
+  </si>
+  <si>
+    <t>Integrante2 /  Ramiro Menendez</t>
+  </si>
+  <si>
+    <t>Integrante 3 /  Tomás Aristein</t>
+  </si>
+  <si>
+    <t>Proponer resoluciones</t>
+  </si>
+  <si>
+    <t>Puesta en común de resoluciones</t>
+  </si>
+  <si>
+    <t>Desarrollar la solución en papel</t>
+  </si>
+  <si>
+    <t>Desarrollar la solución en Logisim</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Testear el circuito y depurar error</t>
+  </si>
+  <si>
+    <t>Repetir T6 tantas veces como sea necesario</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>1 de Nov</t>
+  </si>
+  <si>
+    <t>Entregar TP</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>5 de Nov</t>
+  </si>
+  <si>
+    <t>8 de Nov</t>
+  </si>
+  <si>
+    <t>25 de Nov</t>
+  </si>
+  <si>
+    <t>11 de Nov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -368,22 +444,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -391,7 +452,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFF2F2F2"/>
       <name val="Calibri"/>
@@ -399,7 +460,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -409,6 +470,12 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -459,7 +526,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -467,113 +534,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -632,53 +634,361 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="43.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
+    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -688,28 +998,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4">
         <v>44849</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4">
         <v>44849</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -718,18 +1028,18 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="5">
         <v>44851</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -738,18 +1048,18 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="5">
         <v>44851</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -758,15 +1068,15 @@
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="5">
         <v>44852</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -775,15 +1085,15 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -792,15 +1102,15 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
         <v>44859</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -809,281 +1119,389 @@
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.51"/>
+    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.51"/>
+    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>